--- a/ConceptMap-R5-Parameters-elements-for-R4-Parameters.xlsx
+++ b/ConceptMap-R5-Parameters-elements-for-R4-Parameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.853021-06:00</t>
+    <t>2026-02-09T22:05:44.110744-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,9 +114,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Parameters#Parameters</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters#ExpansionProfile</t>
-  </si>
-  <si>
     <t>Parameters.meta</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Parameters#Parameters.meta</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters#ExpansionProfile.meta</t>
-  </si>
-  <si>
     <t>Parameters.implicitRules</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Parameters#Parameters.implicitRules</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters#ExpansionProfile.implicitRules</t>
-  </si>
-  <si>
     <t>Parameters.language</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Parameters#Parameters.language</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters#ExpansionProfile.language</t>
   </si>
   <si>
     <t>Parameters.parameter</t>
@@ -452,7 +440,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -505,159 +493,107 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Parameters-elements-for-R4-Parameters.xlsx
+++ b/ConceptMap-R5-Parameters-elements-for-R4-Parameters.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.110744-06:00</t>
+    <t>2026-02-17T14:42:27.4514399-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
